--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lama2-Dag1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lama2-Dag1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Dag1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>263.86893252612</v>
+        <v>1.471482</v>
       </c>
       <c r="H2">
-        <v>263.86893252612</v>
+        <v>4.414446</v>
       </c>
       <c r="I2">
-        <v>0.894880803497393</v>
+        <v>0.004946458467382327</v>
       </c>
       <c r="J2">
-        <v>0.894880803497393</v>
+        <v>0.004946458467382326</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.205814082864871</v>
+        <v>11.779764</v>
       </c>
       <c r="N2">
-        <v>9.205814082864871</v>
+        <v>35.339292</v>
       </c>
       <c r="O2">
-        <v>0.08256756460290157</v>
+        <v>0.1028447940505417</v>
       </c>
       <c r="P2">
-        <v>0.08256756460290157</v>
+        <v>0.1028447940505417</v>
       </c>
       <c r="Q2">
-        <v>2429.128335079476</v>
+        <v>17.333710690248</v>
       </c>
       <c r="R2">
-        <v>2429.128335079476</v>
+        <v>156.003396212232</v>
       </c>
       <c r="S2">
-        <v>0.07388812855466746</v>
+        <v>0.0005087175023574936</v>
       </c>
       <c r="T2">
-        <v>0.07388812855466746</v>
+        <v>0.0005087175023574935</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>263.86893252612</v>
+        <v>1.471482</v>
       </c>
       <c r="H3">
-        <v>263.86893252612</v>
+        <v>4.414446</v>
       </c>
       <c r="I3">
-        <v>0.894880803497393</v>
+        <v>0.004946458467382327</v>
       </c>
       <c r="J3">
-        <v>0.894880803497393</v>
+        <v>0.004946458467382326</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.7042882751696</v>
+        <v>43.841352</v>
       </c>
       <c r="N3">
-        <v>43.7042882751696</v>
+        <v>131.524056</v>
       </c>
       <c r="O3">
-        <v>0.391986695918685</v>
+        <v>0.3827627461243965</v>
       </c>
       <c r="P3">
-        <v>0.391986695918685</v>
+        <v>0.3827627461243964</v>
       </c>
       <c r="Q3">
-        <v>11532.20389398282</v>
+        <v>64.51176032366399</v>
       </c>
       <c r="R3">
-        <v>11532.20389398282</v>
+        <v>580.605842912976</v>
       </c>
       <c r="S3">
-        <v>0.3507813694040011</v>
+        <v>0.001893320026565533</v>
       </c>
       <c r="T3">
-        <v>0.3507813694040011</v>
+        <v>0.001893320026565532</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>263.86893252612</v>
+        <v>1.471482</v>
       </c>
       <c r="H4">
-        <v>263.86893252612</v>
+        <v>4.414446</v>
       </c>
       <c r="I4">
-        <v>0.894880803497393</v>
+        <v>0.004946458467382327</v>
       </c>
       <c r="J4">
-        <v>0.894880803497393</v>
+        <v>0.004946458467382326</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.5842129598399</v>
+        <v>58.91811866666666</v>
       </c>
       <c r="N4">
-        <v>58.5842129598399</v>
+        <v>176.754356</v>
       </c>
       <c r="O4">
-        <v>0.5254457394784136</v>
+        <v>0.5143924598250619</v>
       </c>
       <c r="P4">
-        <v>0.5254457394784136</v>
+        <v>0.5143924598250619</v>
       </c>
       <c r="Q4">
-        <v>15458.55373659584</v>
+        <v>86.69695109186399</v>
       </c>
       <c r="R4">
-        <v>15458.55373659584</v>
+        <v>780.2725598267759</v>
       </c>
       <c r="S4">
-        <v>0.4702113055387245</v>
+        <v>0.002544420938459301</v>
       </c>
       <c r="T4">
-        <v>0.4702113055387245</v>
+        <v>0.002544420938459301</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.9959606472072</v>
+        <v>264.7713316666666</v>
       </c>
       <c r="H5">
-        <v>30.9959606472072</v>
+        <v>794.313995</v>
       </c>
       <c r="I5">
-        <v>0.105119196502607</v>
+        <v>0.8900417371348598</v>
       </c>
       <c r="J5">
-        <v>0.105119196502607</v>
+        <v>0.8900417371348596</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.205814082864871</v>
+        <v>11.779764</v>
       </c>
       <c r="N5">
-        <v>9.205814082864871</v>
+        <v>35.339292</v>
       </c>
       <c r="O5">
-        <v>0.08256756460290157</v>
+        <v>0.1028447940505417</v>
       </c>
       <c r="P5">
-        <v>0.08256756460290157</v>
+        <v>0.1028447940505417</v>
       </c>
       <c r="Q5">
-        <v>285.3430510379853</v>
+        <v>3118.94380099906</v>
       </c>
       <c r="R5">
-        <v>285.3430510379853</v>
+        <v>28070.49420899154</v>
       </c>
       <c r="S5">
-        <v>0.008679436048234108</v>
+        <v>0.09153615915202104</v>
       </c>
       <c r="T5">
-        <v>0.008679436048234108</v>
+        <v>0.091536159152021</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.9959606472072</v>
+        <v>264.7713316666666</v>
       </c>
       <c r="H6">
-        <v>30.9959606472072</v>
+        <v>794.313995</v>
       </c>
       <c r="I6">
-        <v>0.105119196502607</v>
+        <v>0.8900417371348598</v>
       </c>
       <c r="J6">
-        <v>0.105119196502607</v>
+        <v>0.8900417371348596</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.7042882751696</v>
+        <v>43.841352</v>
       </c>
       <c r="N6">
-        <v>43.7042882751696</v>
+        <v>131.524056</v>
       </c>
       <c r="O6">
-        <v>0.391986695918685</v>
+        <v>0.3827627461243965</v>
       </c>
       <c r="P6">
-        <v>0.391986695918685</v>
+        <v>0.3827627461243964</v>
       </c>
       <c r="Q6">
-        <v>1354.656399491356</v>
+        <v>11607.93315110708</v>
       </c>
       <c r="R6">
-        <v>1354.656399491356</v>
+        <v>104471.3983599637</v>
       </c>
       <c r="S6">
-        <v>0.04120532651468391</v>
+        <v>0.3406748194710671</v>
       </c>
       <c r="T6">
-        <v>0.04120532651468391</v>
+        <v>0.340674819471067</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>264.7713316666666</v>
+      </c>
+      <c r="H7">
+        <v>794.313995</v>
+      </c>
+      <c r="I7">
+        <v>0.8900417371348598</v>
+      </c>
+      <c r="J7">
+        <v>0.8900417371348596</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>58.91811866666666</v>
+      </c>
+      <c r="N7">
+        <v>176.754356</v>
+      </c>
+      <c r="O7">
+        <v>0.5143924598250619</v>
+      </c>
+      <c r="P7">
+        <v>0.5143924598250619</v>
+      </c>
+      <c r="Q7">
+        <v>15599.82873866802</v>
+      </c>
+      <c r="R7">
+        <v>140398.4586480122</v>
+      </c>
+      <c r="S7">
+        <v>0.4578307585117716</v>
+      </c>
+      <c r="T7">
+        <v>0.4578307585117715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>31.239114</v>
+      </c>
+      <c r="H8">
+        <v>93.717342</v>
+      </c>
+      <c r="I8">
+        <v>0.105011804397758</v>
+      </c>
+      <c r="J8">
+        <v>0.105011804397758</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>11.779764</v>
+      </c>
+      <c r="N8">
+        <v>35.339292</v>
+      </c>
+      <c r="O8">
+        <v>0.1028447940505417</v>
+      </c>
+      <c r="P8">
+        <v>0.1028447940505417</v>
+      </c>
+      <c r="Q8">
+        <v>367.989390489096</v>
+      </c>
+      <c r="R8">
+        <v>3311.904514401864</v>
+      </c>
+      <c r="S8">
+        <v>0.0107999173961632</v>
+      </c>
+      <c r="T8">
+        <v>0.01079991739616319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>30.9959606472072</v>
-      </c>
-      <c r="H7">
-        <v>30.9959606472072</v>
-      </c>
-      <c r="I7">
-        <v>0.105119196502607</v>
-      </c>
-      <c r="J7">
-        <v>0.105119196502607</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>58.5842129598399</v>
-      </c>
-      <c r="N7">
-        <v>58.5842129598399</v>
-      </c>
-      <c r="O7">
-        <v>0.5254457394784136</v>
-      </c>
-      <c r="P7">
-        <v>0.5254457394784136</v>
-      </c>
-      <c r="Q7">
-        <v>1815.873959450804</v>
-      </c>
-      <c r="R7">
-        <v>1815.873959450804</v>
-      </c>
-      <c r="S7">
-        <v>0.055234433939689</v>
-      </c>
-      <c r="T7">
-        <v>0.055234433939689</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>31.239114</v>
+      </c>
+      <c r="H9">
+        <v>93.717342</v>
+      </c>
+      <c r="I9">
+        <v>0.105011804397758</v>
+      </c>
+      <c r="J9">
+        <v>0.105011804397758</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>43.841352</v>
+      </c>
+      <c r="N9">
+        <v>131.524056</v>
+      </c>
+      <c r="O9">
+        <v>0.3827627461243965</v>
+      </c>
+      <c r="P9">
+        <v>0.3827627461243964</v>
+      </c>
+      <c r="Q9">
+        <v>1369.564993042128</v>
+      </c>
+      <c r="R9">
+        <v>12326.08493737915</v>
+      </c>
+      <c r="S9">
+        <v>0.04019460662676384</v>
+      </c>
+      <c r="T9">
+        <v>0.04019460662676383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>31.239114</v>
+      </c>
+      <c r="H10">
+        <v>93.717342</v>
+      </c>
+      <c r="I10">
+        <v>0.105011804397758</v>
+      </c>
+      <c r="J10">
+        <v>0.105011804397758</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>58.91811866666666</v>
+      </c>
+      <c r="N10">
+        <v>176.754356</v>
+      </c>
+      <c r="O10">
+        <v>0.5143924598250619</v>
+      </c>
+      <c r="P10">
+        <v>0.5143924598250619</v>
+      </c>
+      <c r="Q10">
+        <v>1840.549825693528</v>
+      </c>
+      <c r="R10">
+        <v>16564.94843124175</v>
+      </c>
+      <c r="S10">
+        <v>0.05401728037483101</v>
+      </c>
+      <c r="T10">
+        <v>0.054017280374831</v>
       </c>
     </row>
   </sheetData>
